--- a/Assets/GameMain/DataTables/Excel/UIForm.xlsx
+++ b/Assets/GameMain/DataTables/Excel/UIForm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>MenuForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,7 +470,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -612,6 +616,9 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
